--- a/Phase2 AlibabaUC_03_04.xlsx
+++ b/Phase2 AlibabaUC_03_04.xlsx
@@ -938,6 +938,58 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -948,6 +1000,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -968,80 +1038,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78:E79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1373,7 +1373,7 @@
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" customWidth="1"/>
+    <col min="16" max="16" width="64" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="26.42578125" customWidth="1"/>
   </cols>
@@ -1441,179 +1441,179 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="27">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="22">
         <v>42863</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="15" t="s">
         <v>114</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="83.25" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="60">
-      <c r="A4" s="27">
+    <row r="4" spans="1:20" ht="45">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="22">
         <v>42863</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="27"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="15" t="s">
         <v>117</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="27"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="16"/>
       <c r="P5" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="60">
-      <c r="A6" s="27">
+    <row r="6" spans="1:20" ht="45">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="22">
         <v>42863</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="28"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="25"/>
-      <c r="O6" s="28"/>
+      <c r="O6" s="23"/>
       <c r="P6" s="7" t="s">
         <v>116</v>
       </c>
@@ -1627,106 +1627,106 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="28"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="28"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="28"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="60">
-      <c r="A10" s="27">
+    <row r="10" spans="1:20" ht="45">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="22">
         <v>42863</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="26" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="15" t="s">
         <v>145</v>
       </c>
       <c r="M10" s="24"/>
@@ -1735,116 +1735,116 @@
       <c r="P10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="15" t="s">
         <v>123</v>
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="24"/>
       <c r="N11" s="25"/>
       <c r="O11" s="24"/>
       <c r="P11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="24"/>
       <c r="N12" s="25"/>
       <c r="O12" s="24"/>
       <c r="P12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="24"/>
       <c r="N13" s="25"/>
       <c r="O13" s="24"/>
       <c r="P13" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" ht="60">
-      <c r="A14" s="27">
+    <row r="14" spans="1:20" ht="45">
+      <c r="A14" s="16">
         <v>5</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="22">
         <v>42863</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="26" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="15" t="s">
         <v>146</v>
       </c>
       <c r="M14" s="24"/>
@@ -1853,116 +1853,116 @@
       <c r="P14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q14" s="26" t="s">
+      <c r="Q14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="15" t="s">
         <v>126</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="26"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="24"/>
       <c r="N15" s="25"/>
       <c r="O15" s="24"/>
       <c r="P15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="26"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="24"/>
       <c r="P16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="26"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="24"/>
       <c r="P17" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:20" ht="60">
-      <c r="A18" s="27">
+    <row r="18" spans="1:20" ht="45">
+      <c r="A18" s="16">
         <v>6</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="22">
         <v>42863</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="26" t="s">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="15" t="s">
         <v>147</v>
       </c>
       <c r="M18" s="24"/>
@@ -1971,116 +1971,116 @@
       <c r="P18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="R18" s="15" t="s">
         <v>129</v>
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="26"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="24"/>
       <c r="N19" s="25"/>
       <c r="O19" s="24"/>
       <c r="P19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="26"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="24"/>
       <c r="P20" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="26"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="24"/>
       <c r="P21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
     </row>
-    <row r="22" spans="1:20" ht="60">
-      <c r="A22" s="27">
+    <row r="22" spans="1:20" ht="45">
+      <c r="A22" s="16">
         <v>7</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="22">
         <v>42863</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="26" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="15" t="s">
         <v>148</v>
       </c>
       <c r="M22" s="24"/>
@@ -2089,261 +2089,261 @@
       <c r="P22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="Q22" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="R22" s="15" t="s">
         <v>132</v>
       </c>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="26"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="24"/>
       <c r="N23" s="25"/>
       <c r="O23" s="24"/>
       <c r="P23" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="15"/>
       <c r="M24" s="24"/>
       <c r="N24" s="25"/>
       <c r="O24" s="24"/>
       <c r="P24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="26"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="24"/>
       <c r="N25" s="25"/>
       <c r="O25" s="24"/>
       <c r="P25" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="1:20" ht="60">
-      <c r="A26" s="27">
+    <row r="26" spans="1:20" ht="30">
+      <c r="A26" s="16">
         <v>8</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="22">
         <v>42865</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26" t="s">
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
       <c r="P26" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="Q26" s="26" t="s">
+      <c r="Q26" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="R26" s="26" t="s">
+      <c r="R26" s="15" t="s">
         <v>138</v>
       </c>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
       <c r="P27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="1:20" ht="30">
-      <c r="A28" s="27">
+    <row r="28" spans="1:20">
+      <c r="A28" s="16">
         <v>9</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="22">
         <v>42865</v>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="26" t="s">
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="27"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="16"/>
       <c r="P28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="Q28" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="R28" s="16" t="s">
         <v>117</v>
       </c>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="55.5" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="27"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="16"/>
       <c r="P29" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
     </row>
-    <row r="30" spans="1:20" ht="30">
-      <c r="A30" s="27">
+    <row r="30" spans="1:20">
+      <c r="A30" s="16">
         <v>10</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="22">
         <v>42865</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="28"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="28"/>
+      <c r="O30" s="23"/>
       <c r="P30" s="7" t="s">
         <v>139</v>
       </c>
@@ -2357,106 +2357,106 @@
       <c r="T30" s="11"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="25"/>
-      <c r="O31" s="28"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="28"/>
+      <c r="O32" s="23"/>
       <c r="P32" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="29"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="28"/>
+      <c r="O33" s="23"/>
       <c r="P33" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
     </row>
-    <row r="34" spans="1:20" ht="30">
-      <c r="A34" s="27">
+    <row r="34" spans="1:20">
+      <c r="A34" s="16">
         <v>11</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="22">
         <v>42865</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="26" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="15" t="s">
         <v>145</v>
       </c>
       <c r="M34" s="24"/>
@@ -2465,116 +2465,116 @@
       <c r="P34" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q34" s="26" t="s">
+      <c r="Q34" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="R34" s="26" t="s">
+      <c r="R34" s="15" t="s">
         <v>123</v>
       </c>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="26"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="24"/>
       <c r="N35" s="25"/>
       <c r="O35" s="24"/>
       <c r="P35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="26"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="24"/>
       <c r="N36" s="25"/>
       <c r="O36" s="24"/>
       <c r="P36" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="26"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="24"/>
       <c r="N37" s="25"/>
       <c r="O37" s="24"/>
       <c r="P37" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
     </row>
-    <row r="38" spans="1:20" ht="30">
-      <c r="A38" s="27">
+    <row r="38" spans="1:20">
+      <c r="A38" s="16">
         <v>12</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="22">
         <v>42865</v>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="26" t="s">
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="15" t="s">
         <v>146</v>
       </c>
       <c r="M38" s="24"/>
@@ -2583,116 +2583,116 @@
       <c r="P38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q38" s="26" t="s">
+      <c r="Q38" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="R38" s="26" t="s">
+      <c r="R38" s="15" t="s">
         <v>126</v>
       </c>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="26"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="24"/>
       <c r="N39" s="25"/>
       <c r="O39" s="24"/>
       <c r="P39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="26"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="24"/>
       <c r="N40" s="25"/>
       <c r="O40" s="24"/>
       <c r="P40" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="26"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="24"/>
       <c r="N41" s="25"/>
       <c r="O41" s="24"/>
       <c r="P41" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
     </row>
-    <row r="42" spans="1:20" ht="30">
-      <c r="A42" s="27">
+    <row r="42" spans="1:20">
+      <c r="A42" s="16">
         <v>13</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="22">
         <v>42865</v>
       </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="26" t="s">
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="15" t="s">
         <v>147</v>
       </c>
       <c r="M42" s="24"/>
@@ -2701,116 +2701,116 @@
       <c r="P42" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q42" s="26" t="s">
+      <c r="Q42" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="26" t="s">
+      <c r="R42" s="15" t="s">
         <v>129</v>
       </c>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="29"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="26"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="24"/>
       <c r="N43" s="25"/>
       <c r="O43" s="24"/>
       <c r="P43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="26"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="15"/>
       <c r="M44" s="24"/>
       <c r="N44" s="25"/>
       <c r="O44" s="24"/>
       <c r="P44" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="29"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="26"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="24"/>
       <c r="N45" s="25"/>
       <c r="O45" s="24"/>
       <c r="P45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20" ht="30">
-      <c r="A46" s="27">
+    <row r="46" spans="1:20">
+      <c r="A46" s="16">
         <v>14</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="28"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="22">
         <v>42865</v>
       </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="26" t="s">
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="15" t="s">
         <v>148</v>
       </c>
       <c r="M46" s="24"/>
@@ -2819,1353 +2819,1353 @@
       <c r="P46" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q46" s="26" t="s">
+      <c r="Q46" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="R46" s="26" t="s">
+      <c r="R46" s="15" t="s">
         <v>132</v>
       </c>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="29"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="26"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="24"/>
       <c r="N47" s="25"/>
       <c r="O47" s="24"/>
       <c r="P47" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="29"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="26"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="24"/>
       <c r="N48" s="25"/>
       <c r="O48" s="24"/>
       <c r="P48" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="26"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="15"/>
       <c r="M49" s="24"/>
       <c r="N49" s="25"/>
       <c r="O49" s="24"/>
       <c r="P49" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
     </row>
-    <row r="50" spans="1:20" ht="57.75" thickTop="1">
-      <c r="A50" s="14">
+    <row r="50" spans="1:20" ht="43.5" thickTop="1">
+      <c r="A50" s="32">
         <v>15</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="42">
+      <c r="I50" s="40">
         <v>42837</v>
       </c>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="41" t="s">
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="43" t="s">
+      <c r="N50" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O50" s="43" t="s">
+      <c r="O50" s="41" t="s">
         <v>23</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q50" s="41" t="s">
+      <c r="Q50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R50" s="41" t="s">
+      <c r="R50" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="40" t="s">
+      <c r="S50" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T50" s="27"/>
-    </row>
-    <row r="51" spans="1:20" ht="42.75">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
+      <c r="T50" s="16"/>
+    </row>
+    <row r="51" spans="1:20" ht="28.5">
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
       <c r="P51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="27"/>
-    </row>
-    <row r="52" spans="1:20" ht="43.5" thickBot="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A52" s="33"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
       <c r="P52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="27"/>
-    </row>
-    <row r="53" spans="1:20" ht="57.75" thickTop="1">
-      <c r="A53" s="14">
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="16"/>
+    </row>
+    <row r="53" spans="1:20" ht="43.5" thickTop="1">
+      <c r="A53" s="32">
         <v>16</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="42">
+      <c r="I53" s="40">
         <v>42837</v>
       </c>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="41" t="s">
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="M53" s="40" t="s">
+      <c r="M53" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43" t="s">
+      <c r="N53" s="41"/>
+      <c r="O53" s="41" t="s">
         <v>29</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q53" s="41" t="s">
+      <c r="Q53" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="R53" s="41" t="s">
+      <c r="R53" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S53" s="40" t="s">
+      <c r="S53" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="27"/>
-    </row>
-    <row r="54" spans="1:20" ht="71.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
+      <c r="T53" s="16"/>
+    </row>
+    <row r="54" spans="1:20" ht="42.75">
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
       <c r="P54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="27"/>
-    </row>
-    <row r="55" spans="1:20" ht="43.5" thickBot="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="16"/>
+    </row>
+    <row r="55" spans="1:20" ht="29.25" thickBot="1">
+      <c r="A55" s="33"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
       <c r="P55" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="27"/>
-    </row>
-    <row r="56" spans="1:20" ht="57.75" thickTop="1">
-      <c r="A56" s="14">
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="16"/>
+    </row>
+    <row r="56" spans="1:20" ht="43.5" thickTop="1">
+      <c r="A56" s="32">
         <v>17</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="42">
+      <c r="I56" s="40">
         <v>42837</v>
       </c>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="41" t="s">
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="M56" s="40" t="s">
+      <c r="M56" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N56" s="43" t="s">
+      <c r="N56" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="O56" s="43" t="s">
+      <c r="O56" s="41" t="s">
         <v>34</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q56" s="41" t="s">
+      <c r="Q56" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="R56" s="41" t="s">
+      <c r="R56" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="S56" s="40" t="s">
+      <c r="S56" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T56" s="27"/>
-    </row>
-    <row r="57" spans="1:20" ht="42.75">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
+      <c r="T56" s="16"/>
+    </row>
+    <row r="57" spans="1:20" ht="28.5">
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
       <c r="P57" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="27"/>
-    </row>
-    <row r="58" spans="1:20" ht="43.5" thickBot="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="16"/>
+    </row>
+    <row r="58" spans="1:20" ht="29.25" thickBot="1">
+      <c r="A58" s="33"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
       <c r="P58" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="27"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="16"/>
     </row>
     <row r="59" spans="1:20" ht="72" thickTop="1">
-      <c r="A59" s="14">
+      <c r="A59" s="32">
         <v>18</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="41" t="s">
+      <c r="H59" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="42">
+      <c r="I59" s="40">
         <v>42837</v>
       </c>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="41" t="s">
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="M59" s="40" t="s">
+      <c r="M59" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43" t="s">
+      <c r="N59" s="41"/>
+      <c r="O59" s="41" t="s">
         <v>105</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q59" s="41" t="s">
+      <c r="Q59" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R59" s="41" t="s">
+      <c r="R59" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="S59" s="40" t="s">
+      <c r="S59" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T59" s="27"/>
-    </row>
-    <row r="60" spans="1:20" ht="42.75">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
+      <c r="T59" s="16"/>
+    </row>
+    <row r="60" spans="1:20" ht="28.5">
+      <c r="A60" s="46"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
       <c r="P60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="27"/>
-    </row>
-    <row r="61" spans="1:20" ht="43.5" thickBot="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="16"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A61" s="33"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
       <c r="P61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="27"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="16"/>
     </row>
     <row r="62" spans="1:20" ht="72" thickTop="1">
-      <c r="A62" s="14">
+      <c r="A62" s="32">
         <v>19</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F62" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H62" s="41" t="s">
+      <c r="H62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="42">
+      <c r="I62" s="40">
         <v>42837</v>
       </c>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="41" t="s">
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M62" s="40" t="s">
+      <c r="M62" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43" t="s">
+      <c r="N62" s="41"/>
+      <c r="O62" s="41" t="s">
         <v>106</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q62" s="41" t="s">
+      <c r="Q62" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="R62" s="41" t="s">
+      <c r="R62" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="40" t="s">
+      <c r="S62" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T62" s="27"/>
-    </row>
-    <row r="63" spans="1:20" ht="71.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
+      <c r="T62" s="16"/>
+    </row>
+    <row r="63" spans="1:20" ht="28.5">
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
       <c r="P63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="27"/>
-    </row>
-    <row r="64" spans="1:20" ht="43.5" thickBot="1">
-      <c r="A64" s="15"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="16"/>
+    </row>
+    <row r="64" spans="1:20" ht="29.25" thickBot="1">
+      <c r="A64" s="33"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
       <c r="P64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="27"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="16"/>
     </row>
     <row r="65" spans="1:20" ht="72" thickTop="1">
-      <c r="A65" s="14">
+      <c r="A65" s="32">
         <v>20</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="41" t="s">
+      <c r="G65" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="41" t="s">
+      <c r="H65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="42">
+      <c r="I65" s="40">
         <v>42837</v>
       </c>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="41" t="s">
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="M65" s="40" t="s">
+      <c r="M65" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N65" s="43" t="s">
+      <c r="N65" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="O65" s="43" t="s">
+      <c r="O65" s="41" t="s">
         <v>107</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q65" s="41" t="s">
+      <c r="Q65" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="R65" s="41" t="s">
+      <c r="R65" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="S65" s="40" t="s">
+      <c r="S65" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T65" s="27"/>
-    </row>
-    <row r="66" spans="1:20" ht="42.75">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
+      <c r="T65" s="16"/>
+    </row>
+    <row r="66" spans="1:20" ht="28.5">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
       <c r="P66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="27"/>
-    </row>
-    <row r="67" spans="1:20" ht="43.5" thickBot="1">
-      <c r="A67" s="15"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="16"/>
+    </row>
+    <row r="67" spans="1:20" ht="29.25" thickBot="1">
+      <c r="A67" s="33"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
       <c r="P67" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="27"/>
-    </row>
-    <row r="68" spans="1:20" ht="43.5" thickTop="1">
-      <c r="A68" s="14">
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="16"/>
+    </row>
+    <row r="68" spans="1:20" ht="29.25" thickTop="1">
+      <c r="A68" s="32">
         <v>21</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="F68" s="40" t="s">
+      <c r="F68" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="41" t="s">
+      <c r="G68" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="41" t="s">
+      <c r="H68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="42">
+      <c r="I68" s="40">
         <v>42837</v>
       </c>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="41" t="s">
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="M68" s="40" t="s">
+      <c r="M68" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N68" s="43" t="s">
+      <c r="N68" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O68" s="43" t="s">
+      <c r="O68" s="41" t="s">
         <v>59</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q68" s="41" t="s">
+      <c r="Q68" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="R68" s="41" t="s">
+      <c r="R68" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="S68" s="40" t="s">
+      <c r="S68" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T68" s="27"/>
-    </row>
-    <row r="69" spans="1:20" ht="29.25" thickBot="1">
-      <c r="A69" s="15"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
+      <c r="T68" s="16"/>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A69" s="33"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
       <c r="P69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="27"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="16"/>
     </row>
     <row r="70" spans="1:20" ht="57.75" thickTop="1">
-      <c r="A70" s="14">
+      <c r="A70" s="32">
         <v>22</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E70" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="41" t="s">
+      <c r="G70" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="41" t="s">
+      <c r="H70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I70" s="42">
+      <c r="I70" s="40">
         <v>42837</v>
       </c>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="41" t="s">
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="M70" s="40" t="s">
+      <c r="M70" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N70" s="43" t="s">
+      <c r="N70" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O70" s="43" t="s">
+      <c r="O70" s="41" t="s">
         <v>108</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q70" s="41" t="s">
+      <c r="Q70" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="R70" s="41" t="s">
+      <c r="R70" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="S70" s="40" t="s">
+      <c r="S70" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T70" s="27"/>
-    </row>
-    <row r="71" spans="1:20" ht="29.25" thickBot="1">
-      <c r="A71" s="15"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
+      <c r="T70" s="16"/>
+    </row>
+    <row r="71" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A71" s="33"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
       <c r="P71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="27"/>
-    </row>
-    <row r="72" spans="1:20" ht="43.5" thickTop="1">
-      <c r="A72" s="14">
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="16"/>
+    </row>
+    <row r="72" spans="1:20" ht="29.25" thickTop="1">
+      <c r="A72" s="32">
         <v>23</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="F72" s="40" t="s">
+      <c r="F72" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="42">
+      <c r="I72" s="40">
         <v>42837</v>
       </c>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="41" t="s">
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="M72" s="40" t="s">
+      <c r="M72" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N72" s="43" t="s">
+      <c r="N72" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O72" s="43" t="s">
+      <c r="O72" s="41" t="s">
         <v>66</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q72" s="41" t="s">
+      <c r="Q72" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="R72" s="41" t="s">
+      <c r="R72" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="S72" s="40" t="s">
+      <c r="S72" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T72" s="27"/>
-    </row>
-    <row r="73" spans="1:20" ht="29.25" thickBot="1">
-      <c r="A73" s="15"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
+      <c r="T72" s="16"/>
+    </row>
+    <row r="73" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A73" s="33"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
       <c r="P73" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="27"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="16"/>
     </row>
     <row r="74" spans="1:20" ht="57.75" thickTop="1">
-      <c r="A74" s="18">
+      <c r="A74" s="42">
         <v>24</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="F74" s="40" t="s">
+      <c r="F74" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="41" t="s">
+      <c r="G74" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H74" s="41" t="s">
+      <c r="H74" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="42">
+      <c r="I74" s="40">
         <v>42837</v>
       </c>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="41" t="s">
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="M74" s="40" t="s">
+      <c r="M74" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N74" s="43" t="s">
+      <c r="N74" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="43" t="s">
+      <c r="O74" s="41" t="s">
         <v>109</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q74" s="41" t="s">
+      <c r="Q74" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="R74" s="41" t="s">
+      <c r="R74" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="S74" s="40" t="s">
+      <c r="S74" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T74" s="27"/>
-    </row>
-    <row r="75" spans="1:20" ht="29.25" thickBot="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
+      <c r="T74" s="16"/>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
       <c r="P75" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="27"/>
-    </row>
-    <row r="76" spans="1:20" ht="57.75" thickTop="1">
-      <c r="A76" s="14">
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="16"/>
+    </row>
+    <row r="76" spans="1:20" ht="43.5" thickTop="1">
+      <c r="A76" s="32">
         <v>25</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="F76" s="40" t="s">
+      <c r="F76" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="41" t="s">
+      <c r="G76" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H76" s="41" t="s">
+      <c r="H76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="42">
+      <c r="I76" s="40">
         <v>42837</v>
       </c>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="41" t="s">
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="M76" s="40" t="s">
+      <c r="M76" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N76" s="43" t="s">
+      <c r="N76" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="O76" s="43" t="s">
+      <c r="O76" s="41" t="s">
         <v>72</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q76" s="41" t="s">
+      <c r="Q76" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="R76" s="41" t="s">
+      <c r="R76" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="S76" s="40" t="s">
+      <c r="S76" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T76" s="27"/>
-    </row>
-    <row r="77" spans="1:20" ht="29.25" thickBot="1">
-      <c r="A77" s="15"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
+      <c r="T76" s="16"/>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A77" s="33"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
       <c r="P77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="27"/>
-    </row>
-    <row r="78" spans="1:20" ht="43.5" thickTop="1">
-      <c r="A78" s="14">
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="16"/>
+    </row>
+    <row r="78" spans="1:20" ht="29.25" thickTop="1">
+      <c r="A78" s="32">
         <v>26</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="F78" s="40" t="s">
+      <c r="F78" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="41" t="s">
+      <c r="G78" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="42">
+      <c r="I78" s="40">
         <v>42837</v>
       </c>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="41" t="s">
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="M78" s="40" t="s">
+      <c r="M78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N78" s="43" t="s">
+      <c r="N78" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="O78" s="43" t="s">
+      <c r="O78" s="41" t="s">
         <v>72</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q78" s="41" t="s">
+      <c r="Q78" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="R78" s="41" t="s">
+      <c r="R78" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="S78" s="40" t="s">
+      <c r="S78" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T78" s="27"/>
-    </row>
-    <row r="79" spans="1:20" ht="72" thickBot="1">
-      <c r="A79" s="15"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
+      <c r="T78" s="16"/>
+    </row>
+    <row r="79" spans="1:20" ht="29.25" thickBot="1">
+      <c r="A79" s="33"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
       <c r="P79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="41"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="27"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="16"/>
     </row>
     <row r="80" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A80" s="27">
+      <c r="A80" s="16">
         <v>27</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27" t="s">
+      <c r="F80" s="16"/>
+      <c r="G80" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H80" s="27" t="s">
+      <c r="H80" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I80" s="30">
+      <c r="I80" s="22">
         <v>42863</v>
       </c>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="26" t="s">
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
       <c r="P80" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Q80" s="26" t="s">
+      <c r="Q80" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="R80" s="26" t="s">
+      <c r="R80" s="15" t="s">
         <v>114</v>
       </c>
       <c r="S80" s="6"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
       <c r="P81" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
       <c r="S81" s="6"/>
     </row>
-    <row r="82" spans="1:19" ht="60">
-      <c r="A82" s="27">
+    <row r="82" spans="1:19" ht="45">
+      <c r="A82" s="16">
         <v>28</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27" t="s">
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H82" s="27" t="s">
+      <c r="H82" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I82" s="30">
+      <c r="I82" s="22">
         <v>42863</v>
       </c>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="26" t="s">
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="M82" s="27"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="27"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="16"/>
       <c r="P82" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q82" s="27" t="s">
+      <c r="Q82" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="R82" s="27" t="s">
+      <c r="R82" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="27"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="16"/>
       <c r="P83" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-    </row>
-    <row r="84" spans="1:19" ht="60">
-      <c r="A84" s="27">
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+    </row>
+    <row r="84" spans="1:19" ht="45">
+      <c r="A84" s="16">
         <v>29</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28" t="s">
+      <c r="F84" s="23"/>
+      <c r="G84" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H84" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I84" s="30">
+      <c r="I84" s="22">
         <v>42863</v>
       </c>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
       <c r="L84" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="M84" s="28"/>
+      <c r="M84" s="23"/>
       <c r="N84" s="25"/>
-      <c r="O84" s="28"/>
+      <c r="O84" s="23"/>
       <c r="P84" s="7" t="s">
         <v>116</v>
       </c>
@@ -4177,100 +4177,100 @@
       </c>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="27"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
       <c r="N85" s="25"/>
-      <c r="O85" s="28"/>
+      <c r="O85" s="23"/>
       <c r="P85" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q85" s="28"/>
-      <c r="R85" s="28"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="27"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
       <c r="N86" s="25"/>
-      <c r="O86" s="28"/>
+      <c r="O86" s="23"/>
       <c r="P86" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="27"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
       <c r="N87" s="25"/>
-      <c r="O87" s="28"/>
+      <c r="O87" s="23"/>
       <c r="P87" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="28"/>
-    </row>
-    <row r="88" spans="1:19" ht="60">
-      <c r="A88" s="27">
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+    </row>
+    <row r="88" spans="1:19" ht="45">
+      <c r="A88" s="16">
         <v>30</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="28" t="s">
+      <c r="D88" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28" t="s">
+      <c r="F88" s="23"/>
+      <c r="G88" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H88" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="22">
         <v>42863</v>
       </c>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="26" t="s">
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="15" t="s">
         <v>172</v>
       </c>
       <c r="M88" s="24"/>
@@ -4279,108 +4279,108 @@
       <c r="P88" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q88" s="26" t="s">
+      <c r="Q88" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="R88" s="26" t="s">
+      <c r="R88" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="27"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="26"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="15"/>
       <c r="M89" s="24"/>
       <c r="N89" s="25"/>
       <c r="O89" s="24"/>
       <c r="P89" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="26"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="27"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="26"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="15"/>
       <c r="M90" s="24"/>
       <c r="N90" s="25"/>
       <c r="O90" s="24"/>
       <c r="P90" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="27"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="26"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="15"/>
       <c r="M91" s="24"/>
       <c r="N91" s="25"/>
       <c r="O91" s="24"/>
       <c r="P91" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="26"/>
-    </row>
-    <row r="92" spans="1:19" ht="60">
-      <c r="A92" s="27">
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+    </row>
+    <row r="92" spans="1:19" ht="45">
+      <c r="A92" s="16">
         <v>31</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E92" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28" t="s">
+      <c r="F92" s="23"/>
+      <c r="G92" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H92" s="28" t="s">
+      <c r="H92" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I92" s="30">
+      <c r="I92" s="22">
         <v>42863</v>
       </c>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="26" t="s">
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="15" t="s">
         <v>173</v>
       </c>
       <c r="M92" s="24"/>
@@ -4389,108 +4389,108 @@
       <c r="P92" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q92" s="26" t="s">
+      <c r="Q92" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="R92" s="26" t="s">
+      <c r="R92" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="27"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="26"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="15"/>
       <c r="M93" s="24"/>
       <c r="N93" s="25"/>
       <c r="O93" s="24"/>
       <c r="P93" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="27"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="26"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="15"/>
       <c r="M94" s="24"/>
       <c r="N94" s="25"/>
       <c r="O94" s="24"/>
       <c r="P94" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="27"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="26"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="15"/>
       <c r="M95" s="24"/>
       <c r="N95" s="25"/>
       <c r="O95" s="24"/>
       <c r="P95" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-    </row>
-    <row r="96" spans="1:19" ht="60">
-      <c r="A96" s="27">
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+    </row>
+    <row r="96" spans="1:19" ht="45">
+      <c r="A96" s="16">
         <v>32</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E96" s="28" t="s">
+      <c r="E96" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28" t="s">
+      <c r="F96" s="23"/>
+      <c r="G96" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H96" s="28" t="s">
+      <c r="H96" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I96" s="30">
+      <c r="I96" s="22">
         <v>42863</v>
       </c>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="27" t="s">
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="16" t="s">
         <v>174</v>
       </c>
       <c r="M96" s="24"/>
@@ -4499,108 +4499,108 @@
       <c r="P96" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q96" s="26" t="s">
+      <c r="Q96" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="R96" s="26" t="s">
+      <c r="R96" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="27"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="27"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="16"/>
       <c r="M97" s="24"/>
       <c r="N97" s="25"/>
       <c r="O97" s="24"/>
       <c r="P97" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q97" s="27"/>
-      <c r="R97" s="27"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="27"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="27"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="24"/>
       <c r="N98" s="25"/>
       <c r="O98" s="24"/>
       <c r="P98" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="Q98" s="27"/>
-      <c r="R98" s="27"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="27"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="27"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="24"/>
       <c r="N99" s="25"/>
       <c r="O99" s="24"/>
       <c r="P99" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="Q99" s="27"/>
-      <c r="R99" s="27"/>
-    </row>
-    <row r="100" spans="1:18" ht="60">
-      <c r="A100" s="27">
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+    </row>
+    <row r="100" spans="1:18" ht="45">
+      <c r="A100" s="16">
         <v>33</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E100" s="28" t="s">
+      <c r="E100" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28" t="s">
+      <c r="F100" s="23"/>
+      <c r="G100" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H100" s="28" t="s">
+      <c r="H100" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I100" s="30">
+      <c r="I100" s="22">
         <v>42863</v>
       </c>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="27" t="s">
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="16" t="s">
         <v>175</v>
       </c>
       <c r="M100" s="24"/>
@@ -4609,245 +4609,245 @@
       <c r="P100" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q100" s="26" t="s">
+      <c r="Q100" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="R100" s="26" t="s">
+      <c r="R100" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="27"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="27"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="16"/>
       <c r="M101" s="24"/>
       <c r="N101" s="25"/>
       <c r="O101" s="24"/>
       <c r="P101" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="Q101" s="27"/>
-      <c r="R101" s="27"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="27"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="27"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="16"/>
       <c r="M102" s="24"/>
       <c r="N102" s="25"/>
       <c r="O102" s="24"/>
       <c r="P102" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="27"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="27"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="24"/>
       <c r="N103" s="25"/>
       <c r="O103" s="24"/>
       <c r="P103" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-    </row>
-    <row r="104" spans="1:18" ht="60">
-      <c r="A104" s="27">
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+    </row>
+    <row r="104" spans="1:18" ht="30">
+      <c r="A104" s="16">
         <v>34</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D104" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="E104" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27" t="s">
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H104" s="27" t="s">
+      <c r="H104" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I104" s="30">
+      <c r="I104" s="22">
         <v>42865</v>
       </c>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="26" t="s">
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
       <c r="P104" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="Q104" s="26" t="s">
+      <c r="Q104" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="R104" s="26" t="s">
+      <c r="R104" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
       <c r="P105" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q105" s="26"/>
-      <c r="R105" s="26"/>
-    </row>
-    <row r="106" spans="1:18" ht="30">
-      <c r="A106" s="27">
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="16">
         <v>35</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27" t="s">
+      <c r="F106" s="16"/>
+      <c r="G106" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H106" s="27" t="s">
+      <c r="H106" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I106" s="30">
+      <c r="I106" s="22">
         <v>42865</v>
       </c>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="26" t="s">
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="M106" s="27"/>
-      <c r="N106" s="34"/>
-      <c r="O106" s="27"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="16"/>
       <c r="P106" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q106" s="27" t="s">
+      <c r="Q106" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="R106" s="27" t="s">
+      <c r="R106" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="34"/>
-      <c r="O107" s="27"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="16"/>
       <c r="P107" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Q107" s="27"/>
-      <c r="R107" s="27"/>
-    </row>
-    <row r="108" spans="1:18" ht="30">
-      <c r="A108" s="27">
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="16">
         <v>36</v>
       </c>
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D108" s="28" t="s">
+      <c r="D108" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E108" s="28" t="s">
+      <c r="E108" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28" t="s">
+      <c r="F108" s="23"/>
+      <c r="G108" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H108" s="28" t="s">
+      <c r="H108" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I108" s="30">
+      <c r="I108" s="22">
         <v>42865</v>
       </c>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
       <c r="L108" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="M108" s="28"/>
+      <c r="M108" s="23"/>
       <c r="N108" s="25"/>
-      <c r="O108" s="28"/>
+      <c r="O108" s="23"/>
       <c r="P108" s="7" t="s">
         <v>139</v>
       </c>
@@ -4859,100 +4859,100 @@
       </c>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="27"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
       <c r="N109" s="25"/>
-      <c r="O109" s="28"/>
+      <c r="O109" s="23"/>
       <c r="P109" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q109" s="28"/>
-      <c r="R109" s="28"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="23"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="27"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
       <c r="N110" s="25"/>
-      <c r="O110" s="28"/>
+      <c r="O110" s="23"/>
       <c r="P110" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="Q110" s="28"/>
-      <c r="R110" s="28"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="27"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="28"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
       <c r="N111" s="25"/>
-      <c r="O111" s="28"/>
+      <c r="O111" s="23"/>
       <c r="P111" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Q111" s="28"/>
-      <c r="R111" s="28"/>
-    </row>
-    <row r="112" spans="1:18" ht="30">
-      <c r="A112" s="27">
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="16">
         <v>37</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E112" s="28" t="s">
+      <c r="E112" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28" t="s">
+      <c r="F112" s="23"/>
+      <c r="G112" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I112" s="30">
+      <c r="I112" s="22">
         <v>42865</v>
       </c>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="26" t="s">
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="15" t="s">
         <v>172</v>
       </c>
       <c r="M112" s="24"/>
@@ -4961,108 +4961,108 @@
       <c r="P112" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q112" s="26" t="s">
+      <c r="Q112" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="R112" s="26" t="s">
+      <c r="R112" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="27"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="26"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="15"/>
       <c r="M113" s="24"/>
       <c r="N113" s="25"/>
       <c r="O113" s="24"/>
       <c r="P113" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="26"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="27"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="26"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="15"/>
       <c r="M114" s="24"/>
       <c r="N114" s="25"/>
       <c r="O114" s="24"/>
       <c r="P114" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
     </row>
     <row r="115" spans="1:19">
-      <c r="A115" s="27"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="26"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="15"/>
       <c r="M115" s="24"/>
       <c r="N115" s="25"/>
       <c r="O115" s="24"/>
       <c r="P115" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Q115" s="26"/>
-      <c r="R115" s="26"/>
-    </row>
-    <row r="116" spans="1:19" ht="30">
-      <c r="A116" s="27">
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="16">
         <v>38</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="28" t="s">
+      <c r="D116" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E116" s="28" t="s">
+      <c r="E116" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28" t="s">
+      <c r="F116" s="23"/>
+      <c r="G116" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H116" s="28" t="s">
+      <c r="H116" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I116" s="30">
+      <c r="I116" s="22">
         <v>42865</v>
       </c>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="26" t="s">
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="15" t="s">
         <v>173</v>
       </c>
       <c r="M116" s="24"/>
@@ -5071,108 +5071,108 @@
       <c r="P116" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q116" s="26" t="s">
+      <c r="Q116" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="R116" s="26" t="s">
+      <c r="R116" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="27"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="26"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="23"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="15"/>
       <c r="M117" s="24"/>
       <c r="N117" s="25"/>
       <c r="O117" s="24"/>
       <c r="P117" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
     </row>
     <row r="118" spans="1:19">
-      <c r="A118" s="27"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="26"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="15"/>
       <c r="M118" s="24"/>
       <c r="N118" s="25"/>
       <c r="O118" s="24"/>
       <c r="P118" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q118" s="26"/>
-      <c r="R118" s="26"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="15"/>
     </row>
     <row r="119" spans="1:19">
-      <c r="A119" s="27"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="26"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="15"/>
       <c r="M119" s="24"/>
       <c r="N119" s="25"/>
       <c r="O119" s="24"/>
       <c r="P119" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Q119" s="26"/>
-      <c r="R119" s="26"/>
-    </row>
-    <row r="120" spans="1:19" ht="30">
-      <c r="A120" s="27">
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="16">
         <v>39</v>
       </c>
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D120" s="28" t="s">
+      <c r="D120" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E120" s="28" t="s">
+      <c r="E120" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28" t="s">
+      <c r="F120" s="23"/>
+      <c r="G120" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H120" s="28" t="s">
+      <c r="H120" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I120" s="30">
+      <c r="I120" s="22">
         <v>42865</v>
       </c>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="27" t="s">
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="16" t="s">
         <v>174</v>
       </c>
       <c r="M120" s="24"/>
@@ -5181,108 +5181,108 @@
       <c r="P120" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q120" s="26" t="s">
+      <c r="Q120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="R120" s="26" t="s">
+      <c r="R120" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:19">
-      <c r="A121" s="27"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="27"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="16"/>
       <c r="M121" s="24"/>
       <c r="N121" s="25"/>
       <c r="O121" s="24"/>
       <c r="P121" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q121" s="27"/>
-      <c r="R121" s="27"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="16"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="A122" s="27"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="30"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="27"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="16"/>
       <c r="M122" s="24"/>
       <c r="N122" s="25"/>
       <c r="O122" s="24"/>
       <c r="P122" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="Q122" s="27"/>
-      <c r="R122" s="27"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="27"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="27"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="16"/>
       <c r="M123" s="24"/>
       <c r="N123" s="25"/>
       <c r="O123" s="24"/>
       <c r="P123" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="27"/>
-    </row>
-    <row r="124" spans="1:19" ht="30">
-      <c r="A124" s="27">
+      <c r="Q123" s="16"/>
+      <c r="R123" s="16"/>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="16">
         <v>40</v>
       </c>
-      <c r="B124" s="28" t="s">
+      <c r="B124" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28" t="s">
+      <c r="F124" s="23"/>
+      <c r="G124" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H124" s="28" t="s">
+      <c r="H124" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I124" s="30">
+      <c r="I124" s="22">
         <v>42865</v>
       </c>
-      <c r="J124" s="28"/>
-      <c r="K124" s="28"/>
-      <c r="L124" s="27" t="s">
+      <c r="J124" s="23"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="16" t="s">
         <v>175</v>
       </c>
       <c r="M124" s="24"/>
@@ -5291,169 +5291,830 @@
       <c r="P124" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q124" s="26" t="s">
+      <c r="Q124" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="R124" s="26" t="s">
+      <c r="R124" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:19">
-      <c r="A125" s="27"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="30"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="27"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="16"/>
       <c r="M125" s="24"/>
       <c r="N125" s="25"/>
       <c r="O125" s="24"/>
       <c r="P125" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="Q125" s="27"/>
-      <c r="R125" s="27"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
     </row>
     <row r="126" spans="1:19">
-      <c r="A126" s="27"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="30"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="27"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="16"/>
       <c r="M126" s="24"/>
       <c r="N126" s="25"/>
       <c r="O126" s="24"/>
       <c r="P126" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="45"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="17"/>
       <c r="S126" s="13"/>
     </row>
     <row r="127" spans="1:19">
-      <c r="A127" s="27"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="30"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="27"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="16"/>
       <c r="M127" s="24"/>
       <c r="N127" s="25"/>
       <c r="O127" s="24"/>
-      <c r="P127" s="46" t="s">
+      <c r="P127" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="Q127" s="27"/>
-      <c r="R127" s="45"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="17"/>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" ht="30">
-      <c r="A128" s="47">
+    <row r="128" spans="1:19">
+      <c r="A128" s="18">
         <v>41</v>
       </c>
-      <c r="B128" s="48" t="s">
+      <c r="B128" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C128" s="37" t="s">
+      <c r="C128" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D128" s="47" t="s">
+      <c r="D128" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E128" s="27" t="s">
+      <c r="E128" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27" t="s">
+      <c r="F128" s="16"/>
+      <c r="G128" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H128" s="27" t="s">
+      <c r="H128" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I128" s="30">
+      <c r="I128" s="22">
         <v>42865</v>
       </c>
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27" t="s">
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
       <c r="P128" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="Q128" s="27" t="s">
+      <c r="Q128" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="R128" s="45" t="s">
+      <c r="R128" s="17" t="s">
         <v>184</v>
       </c>
       <c r="S128" s="6"/>
     </row>
     <row r="129" spans="1:19">
-      <c r="A129" s="49"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="30"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
       <c r="P129" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Q129" s="27"/>
-      <c r="R129" s="45"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="17"/>
       <c r="S129" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="721">
-    <mergeCell ref="R124:R127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="L128:L129"/>
-    <mergeCell ref="M128:M129"/>
-    <mergeCell ref="N128:N129"/>
-    <mergeCell ref="O128:O129"/>
-    <mergeCell ref="Q128:Q129"/>
-    <mergeCell ref="R128:R129"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="Q42:Q45"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="Q38:Q41"/>
+    <mergeCell ref="R38:R41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="Q30:Q33"/>
+    <mergeCell ref="R30:R33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="Q22:Q25"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="R18:R21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="T50:T52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="R53:R55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="O56:O58"/>
+    <mergeCell ref="Q56:Q58"/>
+    <mergeCell ref="R56:R58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="T56:T58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="Q59:Q61"/>
+    <mergeCell ref="R59:R61"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="N62:N64"/>
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="Q62:Q64"/>
+    <mergeCell ref="R62:R64"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="T62:T64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="Q65:Q67"/>
+    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="T65:T67"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="T68:T69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="T70:T71"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="T72:T73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="T76:T77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="R78:R79"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:T79"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="R80:R81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="M88:M91"/>
+    <mergeCell ref="N88:N91"/>
+    <mergeCell ref="O88:O91"/>
+    <mergeCell ref="Q88:Q91"/>
+    <mergeCell ref="R88:R91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="L92:L95"/>
+    <mergeCell ref="M92:M95"/>
+    <mergeCell ref="N92:N95"/>
+    <mergeCell ref="O92:O95"/>
+    <mergeCell ref="Q92:Q95"/>
+    <mergeCell ref="R92:R95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="L96:L99"/>
+    <mergeCell ref="M96:M99"/>
+    <mergeCell ref="N96:N99"/>
+    <mergeCell ref="O96:O99"/>
+    <mergeCell ref="Q96:Q99"/>
+    <mergeCell ref="R96:R99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="L100:L103"/>
+    <mergeCell ref="M100:M103"/>
+    <mergeCell ref="N100:N103"/>
+    <mergeCell ref="O100:O103"/>
+    <mergeCell ref="Q100:Q103"/>
+    <mergeCell ref="R100:R103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="O108:O111"/>
+    <mergeCell ref="Q108:Q111"/>
+    <mergeCell ref="R108:R111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="J112:J115"/>
+    <mergeCell ref="K112:K115"/>
+    <mergeCell ref="L112:L115"/>
+    <mergeCell ref="M112:M115"/>
+    <mergeCell ref="N112:N115"/>
+    <mergeCell ref="O112:O115"/>
+    <mergeCell ref="Q112:Q115"/>
+    <mergeCell ref="R112:R115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="E116:E119"/>
+    <mergeCell ref="F116:F119"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="H116:H119"/>
+    <mergeCell ref="I116:I119"/>
+    <mergeCell ref="J116:J119"/>
+    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="L116:L119"/>
+    <mergeCell ref="M116:M119"/>
+    <mergeCell ref="N116:N119"/>
+    <mergeCell ref="O116:O119"/>
+    <mergeCell ref="Q116:Q119"/>
+    <mergeCell ref="R116:R119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="H120:H123"/>
+    <mergeCell ref="I120:I123"/>
     <mergeCell ref="J120:J123"/>
     <mergeCell ref="K120:K123"/>
     <mergeCell ref="L120:L123"/>
@@ -5478,685 +6139,24 @@
     <mergeCell ref="N124:N127"/>
     <mergeCell ref="O124:O127"/>
     <mergeCell ref="Q124:Q127"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="H120:H123"/>
-    <mergeCell ref="I120:I123"/>
-    <mergeCell ref="R112:R115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="E116:E119"/>
-    <mergeCell ref="F116:F119"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="H116:H119"/>
-    <mergeCell ref="I116:I119"/>
-    <mergeCell ref="J116:J119"/>
-    <mergeCell ref="K116:K119"/>
-    <mergeCell ref="L116:L119"/>
-    <mergeCell ref="M116:M119"/>
-    <mergeCell ref="N116:N119"/>
-    <mergeCell ref="O116:O119"/>
-    <mergeCell ref="Q116:Q119"/>
-    <mergeCell ref="R116:R119"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="O108:O111"/>
-    <mergeCell ref="Q108:Q111"/>
-    <mergeCell ref="R108:R111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="I112:I115"/>
-    <mergeCell ref="J112:J115"/>
-    <mergeCell ref="K112:K115"/>
-    <mergeCell ref="L112:L115"/>
-    <mergeCell ref="M112:M115"/>
-    <mergeCell ref="N112:N115"/>
-    <mergeCell ref="O112:O115"/>
-    <mergeCell ref="Q112:Q115"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="F108:F111"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="R104:R105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="R106:R107"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="L100:L103"/>
-    <mergeCell ref="M100:M103"/>
-    <mergeCell ref="N100:N103"/>
-    <mergeCell ref="O100:O103"/>
-    <mergeCell ref="Q100:Q103"/>
-    <mergeCell ref="R100:R103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="R92:R95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="L96:L99"/>
-    <mergeCell ref="M96:M99"/>
-    <mergeCell ref="N96:N99"/>
-    <mergeCell ref="O96:O99"/>
-    <mergeCell ref="Q96:Q99"/>
-    <mergeCell ref="R96:R99"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="M88:M91"/>
-    <mergeCell ref="N88:N91"/>
-    <mergeCell ref="O88:O91"/>
-    <mergeCell ref="Q88:Q91"/>
-    <mergeCell ref="R88:R91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="L92:L95"/>
-    <mergeCell ref="M92:M95"/>
-    <mergeCell ref="N92:N95"/>
-    <mergeCell ref="O92:O95"/>
-    <mergeCell ref="Q92:Q95"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="R80:R81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="T76:T77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="R78:R79"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="T78:T79"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="S76:S77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="T72:T73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="T68:T69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="T70:T71"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="T62:T64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="Q65:Q67"/>
-    <mergeCell ref="R65:R67"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:N64"/>
-    <mergeCell ref="O62:O64"/>
-    <mergeCell ref="Q62:Q64"/>
-    <mergeCell ref="R62:R64"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="T56:T58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="Q59:Q61"/>
-    <mergeCell ref="R59:R61"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="M56:M58"/>
-    <mergeCell ref="N56:N58"/>
-    <mergeCell ref="O56:O58"/>
-    <mergeCell ref="Q56:Q58"/>
-    <mergeCell ref="R56:R58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="T50:T52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="R53:R55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="R50:R52"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="R18:R21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="Q22:Q25"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="O30:O33"/>
-    <mergeCell ref="Q30:Q33"/>
-    <mergeCell ref="R30:R33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="O38:O41"/>
-    <mergeCell ref="Q38:Q41"/>
-    <mergeCell ref="R38:R41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="O42:O45"/>
-    <mergeCell ref="Q42:Q45"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="R124:R127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="L128:L129"/>
+    <mergeCell ref="M128:M129"/>
+    <mergeCell ref="N128:N129"/>
+    <mergeCell ref="O128:O129"/>
+    <mergeCell ref="Q128:Q129"/>
+    <mergeCell ref="R128:R129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
